--- a/preguntasEntrevista.xlsx
+++ b/preguntasEntrevista.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrrobot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrrobot\Desktop\Git_repositorio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <definedName name="_tramp" localSheetId="0">Hoja1!$A$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -558,20 +557,23 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -579,12 +581,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -597,12 +599,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
@@ -612,12 +614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -625,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -637,24 +639,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -662,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -670,7 +672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -678,12 +680,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -691,7 +693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -699,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -707,12 +709,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -720,17 +722,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -738,12 +740,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -751,7 +753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -759,7 +761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -767,7 +769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -775,19 +777,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -795,12 +797,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -808,7 +810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
